--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3830</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mitchell Aaron Starc</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>20/10/2010</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3193</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>07/11/2010</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3202</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>05/02/2012</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3371</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/02/2012</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -788,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/02/2012</t>
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>28/08/2012</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>03/09/2012</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>11/01/2013</t>
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3462</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3465</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1188,7 +1245,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>23/01/2013</t>
@@ -1196,7 +1252,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1236,7 +1292,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>01/02/2013</t>
@@ -1244,7 +1299,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1284,7 +1339,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>03/02/2013</t>
@@ -1292,7 +1346,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1332,7 +1386,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>06/02/2013</t>
@@ -1340,7 +1393,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1445,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1432,7 +1485,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>25/08/2014</t>
@@ -1440,7 +1492,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1480,7 +1532,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -1488,7 +1539,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1591,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1592,7 +1643,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1696,7 +1747,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1736,7 +1787,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>19/11/2014</t>
@@ -1744,7 +1794,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1784,7 +1834,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>21/11/2014</t>
@@ -1792,7 +1841,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1844,7 +1893,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1896,7 +1945,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1936,7 +1985,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>18/01/2015</t>
@@ -1944,7 +1992,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1996,7 +2044,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2036,7 +2084,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -2044,7 +2091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2096,7 +2143,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2148,7 +2195,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2200,7 +2247,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2240,7 +2287,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>04/03/2015</t>
@@ -2248,7 +2294,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2300,7 +2346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2340,7 +2386,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>14/03/2015</t>
@@ -2348,7 +2393,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2388,7 +2433,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>20/03/2015</t>
@@ -2396,7 +2440,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2436,7 +2480,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/03/2015</t>
@@ -2444,7 +2487,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2484,7 +2527,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>29/03/2015</t>
@@ -2492,7 +2534,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2532,7 +2574,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>27/08/2015</t>
@@ -2540,7 +2581,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2580,7 +2621,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>03/09/2015</t>
@@ -2588,7 +2628,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2628,7 +2668,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>05/09/2015</t>
@@ -2636,7 +2675,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2688,7 +2727,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2728,7 +2767,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -2736,7 +2774,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2776,7 +2814,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -2784,7 +2821,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2824,7 +2861,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -2832,7 +2868,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2872,7 +2908,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -2880,7 +2915,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2920,7 +2955,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -2928,7 +2962,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2980,7 +3014,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3032,7 +3066,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3084,7 +3118,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3136,7 +3170,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3176,7 +3210,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>31/08/2016</t>
@@ -3184,7 +3217,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3224,7 +3257,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -3232,7 +3264,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3284,7 +3316,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3324,7 +3356,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>06/12/2016</t>
@@ -3332,7 +3363,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3384,7 +3415,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3436,7 +3467,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3488,7 +3519,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3540,7 +3571,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3592,7 +3623,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3644,7 +3675,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3696,7 +3727,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3736,7 +3767,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -3744,7 +3774,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3784,7 +3814,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -3792,7 +3821,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3844,7 +3873,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3896,7 +3925,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3948,7 +3977,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3988,7 +4017,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -3996,7 +4024,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4048,7 +4076,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4100,7 +4128,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4152,7 +4180,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4204,7 +4232,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4244,7 +4272,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -4252,7 +4279,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4304,7 +4331,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4356,7 +4383,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4408,7 +4435,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4460,7 +4487,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4500,7 +4527,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -4508,7 +4534,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4560,7 +4586,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4612,7 +4638,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4664,7 +4690,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4716,7 +4742,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4756,7 +4782,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -4764,7 +4789,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4816,7 +4841,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4868,7 +4893,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4920,7 +4945,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4972,7 +4997,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5024,7 +5049,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5076,7 +5101,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5128,7 +5153,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5180,7 +5205,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5220,7 +5245,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>27/11/2020</t>
@@ -5228,7 +5252,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5268,7 +5292,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>29/11/2020</t>
@@ -5276,7 +5299,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5328,7 +5351,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5380,7 +5403,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5420,7 +5443,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>26/07/2021</t>
@@ -5428,7 +5450,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5468,7 +5490,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>28/08/2022</t>
@@ -5476,7 +5497,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5516,7 +5537,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -5524,7 +5544,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5576,7 +5596,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5628,7 +5648,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5680,7 +5700,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5720,7 +5740,6 @@
           <t>105</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>11/09/2022</t>
@@ -5728,7 +5747,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5768,7 +5787,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -5776,7 +5794,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5828,7 +5846,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5880,7 +5898,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5920,7 +5938,6 @@
           <t>109</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -5928,7 +5945,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5980,7 +5997,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6019,7 +6036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6041,7 +6058,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6078,7 +6095,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3193</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6115,7 +6132,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3202</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6152,7 +6169,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6189,7 +6206,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3371</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6226,7 +6243,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6263,7 +6280,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6300,7 +6317,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6337,7 +6354,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6374,7 +6391,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6411,7 +6428,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6448,7 +6465,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6485,7 +6502,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6522,7 +6539,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3462</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6559,7 +6576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3465</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6596,7 +6613,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6633,7 +6650,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6670,7 +6687,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6707,7 +6724,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6744,7 +6761,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6781,7 +6798,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6818,7 +6835,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6855,7 +6872,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6892,7 +6909,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6929,7 +6946,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6966,7 +6983,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7003,7 +7020,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7040,7 +7057,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7077,7 +7094,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7114,7 +7131,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7151,7 +7168,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7188,7 +7205,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7225,7 +7242,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7262,7 +7279,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7299,7 +7316,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7336,7 +7353,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7373,7 +7390,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7410,7 +7427,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7447,7 +7464,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7484,7 +7501,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7521,7 +7538,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7558,7 +7575,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7595,7 +7612,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7632,7 +7649,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7669,7 +7686,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7706,7 +7723,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7743,7 +7760,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7780,7 +7797,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7817,7 +7834,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7854,7 +7871,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7891,7 +7908,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7928,7 +7945,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7965,7 +7982,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8002,7 +8019,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8039,7 +8056,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8076,7 +8093,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8113,7 +8130,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8150,7 +8167,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8187,7 +8204,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8224,7 +8241,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8261,7 +8278,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8298,7 +8315,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8335,7 +8352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8372,7 +8389,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8409,7 +8426,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8446,7 +8463,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8483,7 +8500,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8520,7 +8537,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8557,7 +8574,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8594,7 +8611,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8631,7 +8648,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8668,7 +8685,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8705,7 +8722,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8742,7 +8759,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8779,7 +8796,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8816,7 +8833,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8853,7 +8870,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8890,7 +8907,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8927,7 +8944,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8964,7 +8981,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9001,7 +9018,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9038,7 +9055,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9075,7 +9092,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9112,7 +9129,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9149,7 +9166,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9186,7 +9203,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9223,7 +9240,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9260,7 +9277,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9297,7 +9314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9334,7 +9351,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9371,7 +9388,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9408,7 +9425,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9445,7 +9462,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9482,7 +9499,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -9519,7 +9536,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9556,7 +9573,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -9593,7 +9610,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9630,7 +9647,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9667,7 +9684,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -9704,7 +9721,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -9741,7 +9758,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -9778,7 +9795,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9815,7 +9832,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -9852,7 +9869,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -9889,7 +9906,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -9926,7 +9943,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -9963,7 +9980,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -10000,7 +10017,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -10037,7 +10054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -10074,7 +10091,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -10111,7 +10128,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -10137,6 +10154,521 @@
       <c r="G111" t="inlineStr">
         <is>
           <t>0/67</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.49%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6.46%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.61%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.17%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.16%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>19.49%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10287,7 +10288,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10330,15 +10330,416 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.17%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.16%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>19.49%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10348,13 +10749,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10362,27 +10756,14 @@
           <t>4483</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.17%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -10392,27 +10773,14 @@
           <t>4484</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10.16%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -10424,13 +10792,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10438,15 +10799,14 @@
           <t>4644</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -10456,17 +10816,8 @@
           <t>4645</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10474,27 +10825,14 @@
           <t>4646</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>9</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.42%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -10506,13 +10844,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10520,27 +10851,14 @@
           <t>4648</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>19.49%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -10550,15 +10868,14 @@
           <t>4649</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -10570,13 +10887,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10586,13 +10896,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10600,27 +10903,14 @@
           <t>4725</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.13%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -10630,15 +10920,14 @@
           <t>4728</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -10648,29 +10937,12 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.72%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2097,7 +2096,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2921,7 +2920,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -10288,6 +10287,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10330,6 +10330,10 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10342,6 +10346,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10414,6 +10422,10 @@
           <t>4486</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10429,6 +10441,9 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10444,6 +10459,9 @@
       <c r="B12" t="n">
         <v>9</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10486,6 +10504,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10531,6 +10553,9 @@
       <c r="B16" t="n">
         <v>9</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10543,6 +10568,10 @@
           <t>4660</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10555,6 +10584,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10600,6 +10633,9 @@
       <c r="B20" t="n">
         <v>9</v>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10635,314 +10671,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>20/10/2010</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>07/11/2010</t>
@@ -651,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>05/02/2012</t>
@@ -750,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/02/2012</t>
@@ -849,6 +852,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/02/2012</t>
@@ -948,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>28/08/2012</t>
@@ -1047,6 +1052,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>03/09/2012</t>
@@ -1094,6 +1100,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>11/01/2013</t>
@@ -1245,6 +1252,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>23/01/2013</t>
@@ -1292,6 +1300,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>01/02/2013</t>
@@ -1339,6 +1348,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>03/02/2013</t>
@@ -1386,6 +1396,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>06/02/2013</t>
@@ -1485,6 +1496,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>25/08/2014</t>
@@ -1532,6 +1544,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -1787,6 +1800,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>19/11/2014</t>
@@ -1834,6 +1848,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>21/11/2014</t>
@@ -1985,6 +2000,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>18/01/2015</t>
@@ -2084,6 +2100,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -2287,6 +2304,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>04/03/2015</t>
@@ -2386,6 +2404,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>14/03/2015</t>
@@ -2433,6 +2452,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>20/03/2015</t>
@@ -2480,6 +2500,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/03/2015</t>
@@ -2527,6 +2548,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>29/03/2015</t>
@@ -2574,6 +2596,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>27/08/2015</t>
@@ -2621,6 +2644,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>03/09/2015</t>
@@ -2668,6 +2692,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>05/09/2015</t>
@@ -2767,6 +2792,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -2814,6 +2840,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -2861,6 +2888,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -2908,6 +2936,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -2955,6 +2984,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -3210,6 +3240,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>31/08/2016</t>
@@ -3257,6 +3288,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -3356,6 +3388,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>06/12/2016</t>
@@ -3767,6 +3800,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -3814,6 +3848,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -4017,6 +4052,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -4272,6 +4308,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -4527,6 +4564,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -4782,6 +4820,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -5245,6 +5284,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>27/11/2020</t>
@@ -5292,6 +5332,7 @@
           <t>96</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>29/11/2020</t>
@@ -5443,6 +5484,7 @@
           <t>99</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>26/07/2021</t>
@@ -5490,6 +5532,7 @@
           <t>100</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>28/08/2022</t>
@@ -5537,6 +5580,7 @@
           <t>101</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -5740,6 +5784,7 @@
           <t>105</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>11/09/2022</t>
@@ -5787,6 +5832,7 @@
           <t>106</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -5938,6 +5984,7 @@
           <t>109</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -10160,519 +10207,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.49%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.46%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.61%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.17%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10.16%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.42%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>19.49%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.13%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.72%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3830.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>20/10/2010</t>
@@ -604,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>07/11/2010</t>
@@ -652,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>05/02/2012</t>
@@ -752,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/02/2012</t>
@@ -852,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/02/2012</t>
@@ -952,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>28/08/2012</t>
@@ -1052,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>03/09/2012</t>
@@ -1100,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>11/01/2013</t>
@@ -1252,7 +1245,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>23/01/2013</t>
@@ -1300,7 +1292,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>01/02/2013</t>
@@ -1348,7 +1339,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>03/02/2013</t>
@@ -1396,7 +1386,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>06/02/2013</t>
@@ -1496,7 +1485,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>25/08/2014</t>
@@ -1544,7 +1532,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -1800,7 +1787,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>19/11/2014</t>
@@ -1848,7 +1834,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>21/11/2014</t>
@@ -2000,7 +1985,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>18/01/2015</t>
@@ -2100,7 +2084,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -2304,7 +2287,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>04/03/2015</t>
@@ -2404,7 +2386,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>14/03/2015</t>
@@ -2452,7 +2433,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>20/03/2015</t>
@@ -2500,7 +2480,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/03/2015</t>
@@ -2548,7 +2527,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>29/03/2015</t>
@@ -2596,7 +2574,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>27/08/2015</t>
@@ -2644,7 +2621,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>03/09/2015</t>
@@ -2692,7 +2668,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>05/09/2015</t>
@@ -2792,7 +2767,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -2840,7 +2814,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -2888,7 +2861,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -2936,7 +2908,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -2984,7 +2955,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -3240,7 +3210,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>31/08/2016</t>
@@ -3288,7 +3257,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -3388,7 +3356,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>06/12/2016</t>
@@ -3800,7 +3767,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -3848,7 +3814,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -4052,7 +4017,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -4308,7 +4272,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -4564,7 +4527,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -4820,7 +4782,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -5284,7 +5245,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>27/11/2020</t>
@@ -5332,7 +5292,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>29/11/2020</t>
@@ -5484,7 +5443,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>26/07/2021</t>
@@ -5532,7 +5490,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>28/08/2022</t>
@@ -5580,7 +5537,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -5784,7 +5740,6 @@
           <t>105</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>11/09/2022</t>
@@ -5832,7 +5787,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -5984,7 +5938,6 @@
           <t>109</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -10207,4 +10160,2463 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3193</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3202</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3371</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.76%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3377</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3439</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3441</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3443</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.73%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3462</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.42%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3465</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3467</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3471</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3472</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3473</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3507</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3659</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3663</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3668</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3669</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3673</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3698</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3792</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3796</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3830</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3831</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3896</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3903</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6.30%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>9</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3931</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3.73%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.63%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>11.28%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1.11%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>10</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>10</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>9</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1.40%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>9</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5.08%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>9</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>9</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>8</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2.30%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>9</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3.49%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>6.46%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>9</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>9</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3.61%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>3.17%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>10.16%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>9</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>9</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>9</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>9</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>19.49%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>9</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>10</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>9</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>10</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>